--- a/工作登記.xlsx
+++ b/工作登記.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Documents/Coding/web/100_Ferns_webpage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D5579-7875-A94E-BFA9-1DF57C954608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE4C703-5443-D74B-AD3A-5CBCEB4442D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{4B9A2C33-92B6-4A42-8FF4-E3EDE65B4E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>firebase建立</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navbar in component </t>
+  </si>
+  <si>
+    <t>working time:</t>
+  </si>
+  <si>
+    <t>伺服器架設問題</t>
+  </si>
+  <si>
+    <t>SQL相關研究</t>
   </si>
 </sst>
 </file>
@@ -425,18 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D0F401-25BB-7247-8143-16F2FD17C277}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44270</v>
       </c>
@@ -458,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44272</v>
       </c>
@@ -469,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44333</v>
       </c>
@@ -480,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44334</v>
       </c>
@@ -491,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44336</v>
       </c>
@@ -502,7 +516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44344</v>
       </c>
@@ -513,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44345</v>
       </c>
@@ -524,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44346</v>
       </c>
@@ -535,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44347</v>
       </c>
@@ -546,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44348</v>
       </c>
@@ -557,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44349</v>
       </c>
@@ -568,7 +582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44350</v>
       </c>
@@ -579,7 +593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44351</v>
       </c>
@@ -590,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44352</v>
       </c>
@@ -600,16 +614,19 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
         <f>SUM(B:B)</f>
-        <v>136</v>
-      </c>
-      <c r="E15">
-        <f>D15*158</f>
-        <v>21488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="F15">
+        <f>E15*160</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44353</v>
       </c>
@@ -664,7 +681,43 @@
         <v>11</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/工作登記.xlsx
+++ b/工作登記.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Documents/Coding/web/100_Ferns_webpage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE4C703-5443-D74B-AD3A-5CBCEB4442D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB571CAE-551B-A34C-BC6E-240977CACCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{4B9A2C33-92B6-4A42-8FF4-E3EDE65B4E9E}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,11 +619,11 @@
       </c>
       <c r="E15">
         <f>SUM(B:B)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F15">
         <f>E15*160</f>
-        <v>24000</v>
+        <v>24160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>44392</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
